--- a/日経平均株価.xlsx
+++ b/日経平均株価.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B05856-C46C-440F-BA71-F2A220A77C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF75F876-4EC5-4309-821B-A73416F89752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{D766E83B-0ED7-4E79-821B-C5E8CD727D0B}"/>
   </bookViews>
@@ -1952,6 +1952,1691 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>日経平均株価２０２１年</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>始値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27575.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27649.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29419.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29441.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29024.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28998.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28832.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27493.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28179.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29235.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29330.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27866.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDDD-4EA8-888F-25C612DE4064}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="831951144"/>
+        <c:axId val="831946824"/>
+      </c:barChart>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>28979.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30714.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30208.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29685.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29480.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28852.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28279.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30795.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29489.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29960.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29121.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDDD-4EA8-888F-25C612DE4064}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>安値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27002.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27649.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28308.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28419.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27385.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27795.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27272.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26954.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28179.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27293.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27819.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27588.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CDDD-4EA8-888F-25C612DE4064}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>終値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27663.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28966.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29178.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28812.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28860.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28791.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27283.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28089.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29452.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28892.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27821.759999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28791.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CDDD-4EA8-888F-25C612DE4064}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="831953664"/>
+        <c:axId val="831950784"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="831951144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831946824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="831946824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831951144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="831950784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831953664"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="831953664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="831950784"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>日経平均株価２０２１年</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>始値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27575.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27649.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29419.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29441.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29024.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28998.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28832.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27493.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28179.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29235.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29330.68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27866.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75A5-4061-BC79-D9D98A4545AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>28979.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30714.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30208.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29685.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29480.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28852.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28279.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30795.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29489.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29960.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29121.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-75A5-4061-BC79-D9D98A4545AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>安値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27002.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27649.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28308.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28419.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27385.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27795.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27272.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26954.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28179.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27293.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27819.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27588.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-75A5-4061-BC79-D9D98A4545AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>終値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$N$22</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27663.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28966.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29178.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28812.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28860.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28791.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27283.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28089.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29452.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28892.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27821.759999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28791.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-75A5-4061-BC79-D9D98A4545AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:axId val="752449848"/>
+        <c:axId val="752450568"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="752449848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752450568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="752450568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752449848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2032,6 +3717,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
@@ -2549,6 +4314,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3133,6 +5930,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C6C556-FAC1-8F56-DD3F-BBDE1D66BA2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25CEA555-79A5-E149-5EB0-550BE80897E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3441,8 +6310,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3707,40 +6576,40 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>23319.759999999998</v>
+        <v>27575.57</v>
       </c>
       <c r="D23">
-        <v>22874.27</v>
+        <v>27649.07</v>
       </c>
       <c r="E23">
-        <v>20849.79</v>
+        <v>29419.45</v>
       </c>
       <c r="F23">
-        <v>18686.12</v>
+        <v>29441.91</v>
       </c>
       <c r="G23">
-        <v>19991.97</v>
+        <v>29024.01</v>
       </c>
       <c r="H23">
-        <v>21910.89</v>
+        <v>28998.65</v>
       </c>
       <c r="I23">
-        <v>22338.3</v>
+        <v>28832.41</v>
       </c>
       <c r="J23">
-        <v>21947.58</v>
+        <v>27493.32</v>
       </c>
       <c r="K23">
-        <v>23089.63</v>
+        <v>28179.040000000001</v>
       </c>
       <c r="L23">
-        <v>23185.119999999999</v>
+        <v>29235.11</v>
       </c>
       <c r="M23">
-        <v>23110.74</v>
+        <v>29330.68</v>
       </c>
       <c r="N23">
-        <v>26624.2</v>
+        <v>27866.73</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3748,40 +6617,40 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>24115.95</v>
+        <v>28979.53</v>
       </c>
       <c r="D24">
-        <v>23995.37</v>
+        <v>30714.52</v>
       </c>
       <c r="E24">
-        <v>21719.78</v>
+        <v>30485</v>
       </c>
       <c r="F24">
-        <v>20365.89</v>
+        <v>30208.89</v>
       </c>
       <c r="G24">
-        <v>21955.439999999999</v>
+        <v>29685.41</v>
       </c>
       <c r="H24">
-        <v>23185.85</v>
+        <v>29480.85</v>
       </c>
       <c r="I24">
-        <v>22965.56</v>
+        <v>28852.31</v>
       </c>
       <c r="J24">
-        <v>23431.040000000001</v>
+        <v>28279.8</v>
       </c>
       <c r="K24">
-        <v>23622.74</v>
+        <v>30795.78</v>
       </c>
       <c r="L24">
-        <v>23725.58</v>
+        <v>29489.11</v>
       </c>
       <c r="M24">
-        <v>26834.2</v>
+        <v>29960.93</v>
       </c>
       <c r="N24">
-        <v>27602.52</v>
+        <v>29121.01</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3789,40 +6658,40 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>22892.95</v>
+        <v>27002.18</v>
       </c>
       <c r="D25">
-        <v>20916.400000000001</v>
+        <v>27649.07</v>
       </c>
       <c r="E25">
-        <v>16358.19</v>
+        <v>28308.57</v>
       </c>
       <c r="F25">
-        <v>17646.5</v>
+        <v>28419.84</v>
       </c>
       <c r="G25">
-        <v>19448.93</v>
+        <v>27385.03</v>
       </c>
       <c r="H25">
-        <v>21529.83</v>
+        <v>27795.86</v>
       </c>
       <c r="I25">
-        <v>21710</v>
+        <v>27272.49</v>
       </c>
       <c r="J25">
-        <v>21919.83</v>
+        <v>26954.81</v>
       </c>
       <c r="K25">
-        <v>22878.71</v>
+        <v>28179.040000000001</v>
       </c>
       <c r="L25">
-        <v>22948.47</v>
+        <v>27293.62</v>
       </c>
       <c r="M25">
-        <v>23096.79</v>
+        <v>27819.14</v>
       </c>
       <c r="N25">
-        <v>26327.08</v>
+        <v>27588.61</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
@@ -3830,40 +6699,40 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>23205.18</v>
+        <v>27663.39</v>
       </c>
       <c r="D26">
-        <v>21142.959999999999</v>
+        <v>28966.01</v>
       </c>
       <c r="E26">
-        <v>18917.009999999998</v>
+        <v>29178.799999999999</v>
       </c>
       <c r="F26">
-        <v>20193.689999999999</v>
+        <v>28812.63</v>
       </c>
       <c r="G26">
-        <v>21877.89</v>
+        <v>28860.080000000002</v>
       </c>
       <c r="H26">
-        <v>22288.14</v>
+        <v>28791.53</v>
       </c>
       <c r="I26">
-        <v>21710</v>
+        <v>27283.59</v>
       </c>
       <c r="J26">
-        <v>23139.759999999998</v>
+        <v>28089.54</v>
       </c>
       <c r="K26">
-        <v>23185.119999999999</v>
+        <v>29452.66</v>
       </c>
       <c r="L26">
-        <v>22977.13</v>
+        <v>28892.69</v>
       </c>
       <c r="M26">
-        <v>26433.62</v>
+        <v>27821.759999999998</v>
       </c>
       <c r="N26">
-        <v>27444.17</v>
+        <v>28791.71</v>
       </c>
     </row>
   </sheetData>

--- a/日経平均株価.xlsx
+++ b/日経平均株価.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF75F876-4EC5-4309-821B-A73416F89752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF42AC4C-ADEB-479F-8048-EC674AFE015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{D766E83B-0ED7-4E79-821B-C5E8CD727D0B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="22">
   <si>
     <t>日経平均株価</t>
     <rPh sb="0" eb="2">
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>2021年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024年</t>
     <rPh sb="4" eb="5">
       <t>ネン</t>
     </rPh>
@@ -3637,6 +3658,3366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>日経平均株価２０２２年</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>始値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$41:$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29098.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27167.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26836.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27624.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26851.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27295.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26460.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27813.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25778.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27614.639999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28273.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1283-49EC-AC46-428A4C9E5855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$41:$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29388.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27880.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28228.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27965.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27463.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28389.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28015.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29222.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28659.759999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27602.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28502.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28423.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1283-49EC-AC46-428A4C9E5855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>安値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$41:$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$N$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26044.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25775.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24681.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26051.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25688.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25520.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25841.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27530.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25805.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25621.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27032.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25953.919999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1283-49EC-AC46-428A4C9E5855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>終値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$41:$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$45:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27001.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26526.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27821.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26847.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27279.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26393.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27801.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28091.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25937.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27587.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27968.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26094.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1283-49EC-AC46-428A4C9E5855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:axId val="845551960"/>
+        <c:axId val="845553760"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="845551960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845553760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="845553760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845551960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>日経平均株価２０２２年</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>始値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$41:$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29098.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27167.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26836.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27624.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26851.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27295.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26460.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27813.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25778.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27614.639999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28273.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C746-4DB9-BA8D-34143A6690C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="765188520"/>
+        <c:axId val="765187440"/>
+      </c:barChart>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$41:$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>29388.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27880.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28228.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27965.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27463.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28389.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28015.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29222.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28659.759999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27602.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28502.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28423.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C746-4DB9-BA8D-34143A6690C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>安値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$41:$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$N$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26044.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25775.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24681.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26051.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25688.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25520.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25841.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27530.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25805.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25621.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27032.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25953.919999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C746-4DB9-BA8D-34143A6690C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>終値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$41:$N$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$45:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27001.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26526.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27821.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26847.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27279.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26393.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27801.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28091.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25937.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27587.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27968.99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26094.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C746-4DB9-BA8D-34143A6690C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="840493248"/>
+        <c:axId val="840492528"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="765188520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765187440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765187440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765188520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="840492528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="840493248"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="840493248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="840492528"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>日経平均株価２０２３年</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>始値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$60:$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$N$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25834.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27483.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27363.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28203.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29058.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30886.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33517.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33292.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32521.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32101.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31311.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33537.440000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F68-4C1E-B4DF-77635C017424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$60:$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$62:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27502.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27821.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28734.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28879.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31560.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33772.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33762.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33488.769999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33634.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32533.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33853.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33824.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F68-4C1E-B4DF-77635C017424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>安値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$60:$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$63:$N$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25661.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27046.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26632.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27427.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28931.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30853.439999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31791.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31275.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31674.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30487.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31301.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32205.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F68-4C1E-B4DF-77635C017424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>終値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$60:$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$64:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27327.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27445.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28041.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28856.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30887.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33189.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33172.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32619.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31857.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30858.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33486.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33464.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F68-4C1E-B4DF-77635C017424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:axId val="594077512"/>
+        <c:axId val="830325896"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="594077512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830325896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830325896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594077512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>日経平均株価２０２３年</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>始値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$60:$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$61:$N$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25834.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27483.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27363.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28203.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29058.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30886.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33517.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33292.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32521.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32101.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31311.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33537.440000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A0B-457B-BC06-AA3911B15BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="830763864"/>
+        <c:axId val="830764944"/>
+      </c:barChart>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>高値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$60:$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$62:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27502.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27821.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28734.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28879.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31560.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33772.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33762.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33488.769999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33634.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32533.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33853.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33824.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A0B-457B-BC06-AA3911B15BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>安値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$60:$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$63:$N$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25661.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27046.080000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26632.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27427.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28931.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30853.439999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31791.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31275.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31674.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30487.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31301.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32205.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A0B-457B-BC06-AA3911B15BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>終値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$60:$N$60</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1月</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2月</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3月</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4月</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5月</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6月</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7月</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8月</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9月</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10月</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12月</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$64:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>27327.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27445.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28041.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28856.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30887.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33189.040000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33172.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32619.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31857.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30858.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33486.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33464.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9A0B-457B-BC06-AA3911B15BA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="830772504"/>
+        <c:axId val="830772144"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="830763864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830764944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830764944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830763864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="830772144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830772504"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="830772504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="830772144"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3797,6 +7178,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
@@ -5346,6 +8887,2070 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6002,6 +11607,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="グラフ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3D9E88-79BA-BA50-F1AF-CD28FB4B31AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="グラフ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C66588-11CD-45EC-8EE1-265497717FE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="グラフ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C19B0CD-635E-AE23-7996-25AF5CEF3AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="グラフ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A82950-7731-106F-8365-7E0921E6C1F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6308,10 +12057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595BD62F-A008-431C-A56F-743584FC949B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6735,6 +12484,489 @@
         <v>28791.71</v>
       </c>
     </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>29098.41</v>
+      </c>
+      <c r="D42">
+        <v>27167.14</v>
+      </c>
+      <c r="E42">
+        <v>26836.74</v>
+      </c>
+      <c r="F42">
+        <v>27624.11</v>
+      </c>
+      <c r="G42">
+        <v>26851.1</v>
+      </c>
+      <c r="H42">
+        <v>27295.63</v>
+      </c>
+      <c r="I42">
+        <v>26460.71</v>
+      </c>
+      <c r="J42">
+        <v>27813.82</v>
+      </c>
+      <c r="K42">
+        <v>27797</v>
+      </c>
+      <c r="L42">
+        <v>25778.95</v>
+      </c>
+      <c r="M42">
+        <v>27614.639999999999</v>
+      </c>
+      <c r="N42">
+        <v>28273.13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>29388.16</v>
+      </c>
+      <c r="D43">
+        <v>27880.7</v>
+      </c>
+      <c r="E43">
+        <v>28228.81</v>
+      </c>
+      <c r="F43">
+        <v>27965.94</v>
+      </c>
+      <c r="G43">
+        <v>27463.33</v>
+      </c>
+      <c r="H43">
+        <v>28389.75</v>
+      </c>
+      <c r="I43">
+        <v>28015.68</v>
+      </c>
+      <c r="J43">
+        <v>29222.77</v>
+      </c>
+      <c r="K43">
+        <v>28659.759999999998</v>
+      </c>
+      <c r="L43">
+        <v>27602.99</v>
+      </c>
+      <c r="M43">
+        <v>28502.29</v>
+      </c>
+      <c r="N43">
+        <v>28423.46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>26044.52</v>
+      </c>
+      <c r="D44">
+        <v>25775.64</v>
+      </c>
+      <c r="E44">
+        <v>24681.74</v>
+      </c>
+      <c r="F44">
+        <v>26051.040000000001</v>
+      </c>
+      <c r="G44">
+        <v>25688.11</v>
+      </c>
+      <c r="H44">
+        <v>25520.23</v>
+      </c>
+      <c r="I44">
+        <v>25841.75</v>
+      </c>
+      <c r="J44">
+        <v>27530.6</v>
+      </c>
+      <c r="K44">
+        <v>25805.59</v>
+      </c>
+      <c r="L44">
+        <v>25621.96</v>
+      </c>
+      <c r="M44">
+        <v>27032.02</v>
+      </c>
+      <c r="N44">
+        <v>25953.919999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>27001.98</v>
+      </c>
+      <c r="D45">
+        <v>26526.82</v>
+      </c>
+      <c r="E45">
+        <v>27821.43</v>
+      </c>
+      <c r="F45">
+        <v>26847.9</v>
+      </c>
+      <c r="G45">
+        <v>27279.8</v>
+      </c>
+      <c r="H45">
+        <v>26393.040000000001</v>
+      </c>
+      <c r="I45">
+        <v>27801.64</v>
+      </c>
+      <c r="J45">
+        <v>28091.53</v>
+      </c>
+      <c r="K45">
+        <v>25937.21</v>
+      </c>
+      <c r="L45">
+        <v>27587.46</v>
+      </c>
+      <c r="M45">
+        <v>27968.99</v>
+      </c>
+      <c r="N45">
+        <v>26094.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>25834.93</v>
+      </c>
+      <c r="D61">
+        <v>27483.41</v>
+      </c>
+      <c r="E61">
+        <v>27363.57</v>
+      </c>
+      <c r="F61">
+        <v>28203.35</v>
+      </c>
+      <c r="G61">
+        <v>29058.05</v>
+      </c>
+      <c r="H61">
+        <v>30886.01</v>
+      </c>
+      <c r="I61">
+        <v>33517.599999999999</v>
+      </c>
+      <c r="J61">
+        <v>33292.31</v>
+      </c>
+      <c r="K61">
+        <v>32521.15</v>
+      </c>
+      <c r="L61">
+        <v>32101.97</v>
+      </c>
+      <c r="M61">
+        <v>31311.22</v>
+      </c>
+      <c r="N61">
+        <v>33537.440000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>27502.15</v>
+      </c>
+      <c r="D62">
+        <v>27821.22</v>
+      </c>
+      <c r="E62">
+        <v>28734.79</v>
+      </c>
+      <c r="F62">
+        <v>28879.24</v>
+      </c>
+      <c r="G62">
+        <v>31560.43</v>
+      </c>
+      <c r="H62">
+        <v>33772.89</v>
+      </c>
+      <c r="I62">
+        <v>33762.81</v>
+      </c>
+      <c r="J62">
+        <v>33488.769999999997</v>
+      </c>
+      <c r="K62">
+        <v>33634.31</v>
+      </c>
+      <c r="L62">
+        <v>32533.08</v>
+      </c>
+      <c r="M62">
+        <v>33853.46</v>
+      </c>
+      <c r="N62">
+        <v>33824.06</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>25661.89</v>
+      </c>
+      <c r="D63">
+        <v>27046.080000000002</v>
+      </c>
+      <c r="E63">
+        <v>26632.92</v>
+      </c>
+      <c r="F63">
+        <v>27427.66</v>
+      </c>
+      <c r="G63">
+        <v>28931.81</v>
+      </c>
+      <c r="H63">
+        <v>30853.439999999999</v>
+      </c>
+      <c r="I63">
+        <v>31791.71</v>
+      </c>
+      <c r="J63">
+        <v>31275.25</v>
+      </c>
+      <c r="K63">
+        <v>31674.42</v>
+      </c>
+      <c r="L63">
+        <v>30487.67</v>
+      </c>
+      <c r="M63">
+        <v>31301.51</v>
+      </c>
+      <c r="N63">
+        <v>32205.38</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>27327.11</v>
+      </c>
+      <c r="D64">
+        <v>27445.56</v>
+      </c>
+      <c r="E64">
+        <v>28041.48</v>
+      </c>
+      <c r="F64">
+        <v>28856.44</v>
+      </c>
+      <c r="G64">
+        <v>30887.88</v>
+      </c>
+      <c r="H64">
+        <v>33189.040000000001</v>
+      </c>
+      <c r="I64">
+        <v>33172.22</v>
+      </c>
+      <c r="J64">
+        <v>32619.34</v>
+      </c>
+      <c r="K64">
+        <v>31857.62</v>
+      </c>
+      <c r="L64">
+        <v>30858.85</v>
+      </c>
+      <c r="M64">
+        <v>33486.89</v>
+      </c>
+      <c r="N64">
+        <v>33464.17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>33193.050000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>36984.51</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>32693.18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>36286.71</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日経平均株価.xlsx
+++ b/日経平均株価.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\machi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF42AC4C-ADEB-479F-8048-EC674AFE015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37702A39-2524-4DDE-8664-C2248E765429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{D766E83B-0ED7-4E79-821B-C5E8CD727D0B}"/>
   </bookViews>
@@ -1140,1750 +1140,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>日経平均株価２０２０年</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>始値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$3:$N$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>23319.759999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22874.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20849.79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18686.12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19991.97</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21910.89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22338.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21947.58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23089.63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23185.119999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23110.74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26624.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8664-4EF5-AD98-94B97642405A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="763725520"/>
-        <c:axId val="763724080"/>
-      </c:barChart>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>高値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$4:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>24115.95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23995.37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21719.78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20365.89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21955.439999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23185.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22965.56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23431.040000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23622.74</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23725.58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26834.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27602.52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8664-4EF5-AD98-94B97642405A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>安値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$N$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>22892.95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20916.400000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16358.19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17646.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19448.93</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21529.83</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21710</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21919.83</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22878.71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22948.47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23096.79</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26327.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8664-4EF5-AD98-94B97642405A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>終値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$N$2</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$6:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>23205.18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21142.959999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18917.009999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20193.689999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21877.89</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22288.14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21710</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23139.759999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23185.119999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22977.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>26433.62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27444.17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8664-4EF5-AD98-94B97642405A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="831204248"/>
-        <c:axId val="831203528"/>
-      </c:stockChart>
-      <c:catAx>
-        <c:axId val="763725520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="763724080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="763724080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="763725520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="831203528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831204248"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="831204248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="831203528"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>日経平均株価２０２１年</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>始値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$22:$N$22</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$23:$N$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>27575.57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27649.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29419.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29441.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29024.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28998.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28832.41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27493.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28179.040000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29235.11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29330.68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27866.73</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CDDD-4EA8-888F-25C612DE4064}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="831951144"/>
-        <c:axId val="831946824"/>
-      </c:barChart>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>高値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$22:$N$22</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$24:$N$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>28979.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30714.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30485</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30208.89</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29685.41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29480.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28852.31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28279.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30795.78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>29489.11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29960.93</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29121.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CDDD-4EA8-888F-25C612DE4064}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>安値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$22:$N$22</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$25:$N$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>27002.18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27649.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28308.57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28419.84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27385.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27795.86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27272.49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26954.81</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28179.040000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27293.62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27819.14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27588.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CDDD-4EA8-888F-25C612DE4064}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>終値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$22:$N$22</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$26:$N$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>27663.39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28966.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29178.799999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28812.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28860.080000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28791.53</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27283.59</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28089.54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29452.66</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28892.69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27821.759999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28791.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CDDD-4EA8-888F-25C612DE4064}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="831953664"/>
-        <c:axId val="831950784"/>
-      </c:stockChart>
-      <c:catAx>
-        <c:axId val="831951144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831946824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="831946824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831951144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="831950784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="831953664"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="831953664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="831950784"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
               <a:t>日経平均株価２０２１年</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP"/>
@@ -3658,7 +1914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4466,875 +2722,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>日経平均株価２０２２年</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>始値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$41:$N$41</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$42:$N$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>29098.41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27167.14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26836.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27624.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26851.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27295.63</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26460.71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27813.82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>27797</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25778.95</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27614.639999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28273.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C746-4DB9-BA8D-34143A6690C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="765188520"/>
-        <c:axId val="765187440"/>
-      </c:barChart>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>高値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$41:$N$41</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$43:$N$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>29388.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27880.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28228.81</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27965.94</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27463.33</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28389.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28015.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29222.77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28659.759999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27602.99</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28502.29</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28423.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C746-4DB9-BA8D-34143A6690C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>安値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$41:$N$41</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$44:$N$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>26044.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25775.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24681.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26051.040000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25688.11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25520.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25841.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27530.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25805.59</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25621.96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27032.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25953.919999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C746-4DB9-BA8D-34143A6690C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>終値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$41:$N$41</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$45:$N$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>27001.98</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26526.82</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27821.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26847.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27279.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26393.040000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27801.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28091.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25937.21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27587.46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>27968.99</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>26094.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C746-4DB9-BA8D-34143A6690C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="840493248"/>
-        <c:axId val="840492528"/>
-      </c:stockChart>
-      <c:catAx>
-        <c:axId val="765188520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="765187440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="765187440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="765188520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="840492528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="840493248"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="840493248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="840492528"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6142,882 +3530,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>日経平均株価２０２３年</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$61</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>始値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="19050">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$60:$N$60</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$61:$N$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>25834.93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27483.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27363.57</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28203.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29058.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30886.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33517.599999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33292.31</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32521.15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32101.97</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31311.22</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33537.440000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A0B-457B-BC06-AA3911B15BA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="830763864"/>
-        <c:axId val="830764944"/>
-      </c:barChart>
-      <c:stockChart>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$62</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>高値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$60:$N$60</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$62:$N$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>27502.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27821.22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28734.79</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28879.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31560.43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33772.89</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33762.81</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33488.769999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33634.31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32533.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33853.46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33824.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A0B-457B-BC06-AA3911B15BA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>安値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$60:$N$60</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$63:$N$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>25661.89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27046.080000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>26632.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27427.66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28931.81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30853.439999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31791.71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31275.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31674.42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30487.67</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31301.51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32205.38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9A0B-457B-BC06-AA3911B15BA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>終値</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dot"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$60:$N$60</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1月</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2月</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3月</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4月</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5月</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6月</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7月</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8月</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9月</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10月</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11月</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12月</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$64:$N$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>27327.11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27445.56</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28041.48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28856.44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30887.88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33189.040000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33172.22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32619.34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31857.62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30858.85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33486.89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33464.17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9A0B-457B-BC06-AA3911B15BA1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:axId val="830772504"/>
-        <c:axId val="830772144"/>
-      </c:stockChart>
-      <c:catAx>
-        <c:axId val="830763864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="830764944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="830764944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="830763864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="830772144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="830772504"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="830772504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="830772144"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7178,166 +3690,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
@@ -8887,2070 +5239,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11506,78 +5794,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F6B788-41B4-208F-98D6-2CCC5869BC29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C6C556-FAC1-8F56-DD3F-BBDE1D66BA2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -11606,7 +5822,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11642,43 +5858,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="グラフ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C66588-11CD-45EC-8EE1-265497717FE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11714,43 +5894,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="グラフ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A82950-7731-106F-8365-7E0921E6C1F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12059,8 +6203,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="R71" sqref="R71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
